--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_per_day_fixed_period_5_sawtooth_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_per_day_fixed_period_5_sawtooth_0_.xlsx
@@ -599,51 +599,51 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[0.16529985719596496, 13.048949681218337]</t>
+          <t>[0.21342326297962266, 13.00082627543468]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.04463528415127493</v>
+        <v>0.04312273696604918</v>
       </c>
       <c r="O2" t="n">
-        <v>0.04463528415127493</v>
+        <v>0.04312273696604918</v>
       </c>
       <c r="P2" t="n">
         <v>-1.434000250287233</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-2.8428426014466197, -0.02515789912784605]</t>
+          <t>[-2.817684702318773, -0.050315798255692545]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.04621097965678178</v>
+        <v>0.04255030281703265</v>
       </c>
       <c r="S2" t="n">
-        <v>0.04621097965678178</v>
+        <v>0.04255030281703265</v>
       </c>
       <c r="T2" t="n">
         <v>8.846151287454441</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[5.014645852369841, 12.67765672253904]</t>
+          <t>[5.018990335976898, 12.673312238931985]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>2.919815048318952e-05</v>
+        <v>2.869836718466523e-05</v>
       </c>
       <c r="W2" t="n">
-        <v>2.919815048318952e-05</v>
+        <v>2.869836718466523e-05</v>
       </c>
       <c r="X2" t="n">
         <v>5.931651651651794</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.1040640640640662</v>
+        <v>0.2081281281281342</v>
       </c>
       <c r="Z2" t="n">
-        <v>11.75923923923952</v>
+        <v>11.65517517517545</v>
       </c>
     </row>
     <row r="3">
@@ -685,51 +685,51 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-1.0419062609517429, 13.81092488407466]</t>
+          <t>[-1.0899303542357472, 13.858948977358665]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.09020862907693661</v>
+        <v>0.09222960119982915</v>
       </c>
       <c r="O3" t="n">
-        <v>0.09020862907693661</v>
+        <v>0.09222960119982915</v>
       </c>
       <c r="P3" t="n">
         <v>-1.849105585896694</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-3.585000625718081, -0.11321054607530812]</t>
+          <t>[-3.547263777026312, -0.1509473947670772]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.03734821433354596</v>
+        <v>0.03350684771698154</v>
       </c>
       <c r="S3" t="n">
-        <v>0.03734821433354596</v>
+        <v>0.03350684771698154</v>
       </c>
       <c r="T3" t="n">
         <v>9.669749889684461</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[5.459786776341408, 13.879713003027513]</t>
+          <t>[5.461435903498645, 13.878063875870277]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>3.158108831291528e-05</v>
+        <v>3.13946745831295e-05</v>
       </c>
       <c r="W3" t="n">
-        <v>3.158108831291528e-05</v>
+        <v>3.13946745831295e-05</v>
       </c>
       <c r="X3" t="n">
         <v>7.648708708708892</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.4682882882883019</v>
+        <v>0.6243843843844008</v>
       </c>
       <c r="Z3" t="n">
-        <v>14.82912912912948</v>
+        <v>14.67303303303338</v>
       </c>
     </row>
     <row r="4">
@@ -771,51 +771,51 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-1.730570208538989, 14.744450223000552]</t>
+          <t>[-1.4766008015267928, 14.490480815988356]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.1186173761275708</v>
+        <v>0.1076479270738941</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1186173761275708</v>
+        <v>0.1076479270738941</v>
       </c>
       <c r="P4" t="n">
         <v>-2.616421509296003</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-5.157369321208469, -0.07547369738353815]</t>
+          <t>[-5.4466851611787, 0.2138421425866932]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.04383755044345738</v>
+        <v>0.06915149521547592</v>
       </c>
       <c r="S4" t="n">
-        <v>0.04383755044345738</v>
+        <v>0.06915149521547592</v>
       </c>
       <c r="T4" t="n">
         <v>9.415919150610106</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[5.167875321681191, 13.663962979539022]</t>
+          <t>[5.163313059760018, 13.668525241460195]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>5.342468147229162e-05</v>
+        <v>5.425782262769019e-05</v>
       </c>
       <c r="W4" t="n">
-        <v>5.342468147229162e-05</v>
+        <v>5.425782262769019e-05</v>
       </c>
       <c r="X4" t="n">
         <v>10.82266266266292</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.3121921921921977</v>
+        <v>-0.8845445445445677</v>
       </c>
       <c r="Z4" t="n">
-        <v>21.33313313313364</v>
+        <v>22.52986986987041</v>
       </c>
     </row>
     <row r="5">
@@ -857,51 +857,51 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-1.219350380282064, 14.318909508846852]</t>
+          <t>[-1.5567959394952737, 14.656355068060062]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.09641489460100505</v>
+        <v>0.1106535720877817</v>
       </c>
       <c r="O5" t="n">
-        <v>0.09641489460100505</v>
+        <v>0.1106535720877817</v>
       </c>
       <c r="P5" t="n">
         <v>-2.717053105807389</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-5.7360010011489315, 0.3018947895341544]</t>
+          <t>[-4.9686850777496225, -0.4654211338651546]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.07655345371531252</v>
+        <v>0.0191310717017763</v>
       </c>
       <c r="S5" t="n">
-        <v>0.07655345371531252</v>
+        <v>0.0191310717017763</v>
       </c>
       <c r="T5" t="n">
         <v>9.424235720681038</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[5.202639328765185, 13.64583211259689]</t>
+          <t>[5.201939489069154, 13.646531952292921]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>4.8180767371786e-05</v>
+        <v>4.82971888462469e-05</v>
       </c>
       <c r="W5" t="n">
-        <v>4.8180767371786e-05</v>
+        <v>4.82971888462469e-05</v>
       </c>
       <c r="X5" t="n">
         <v>11.23891891891919</v>
       </c>
       <c r="Y5" t="n">
-        <v>-1.248768768768802</v>
+        <v>1.925185185185232</v>
       </c>
       <c r="Z5" t="n">
-        <v>23.72660660660718</v>
+        <v>20.55265265265314</v>
       </c>
     </row>
     <row r="6">
@@ -943,51 +943,51 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-1.558830779010517, 14.38804964058832]</t>
+          <t>[-1.1054528029386965, 13.9346716645165]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.1121467650687782</v>
+        <v>0.0926659751991703</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1121467650687782</v>
+        <v>0.0926659751991703</v>
       </c>
       <c r="P6" t="n">
         <v>2.861711025792504</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[1.0126054398958084, 4.710816611689199]</t>
+          <t>[1.0755001877154236, 4.647921863869584]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.003179161424652799</v>
+        <v>0.002336210289328067</v>
       </c>
       <c r="S6" t="n">
-        <v>0.003179161424652799</v>
+        <v>0.002336210289328067</v>
       </c>
       <c r="T6" t="n">
         <v>9.518931836083972</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[5.302407697336385, 13.73545597483156]</t>
+          <t>[5.300293617419893, 13.737570054748051]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>4.088157375736756e-05</v>
+        <v>4.118535529640255e-05</v>
       </c>
       <c r="W6" t="n">
-        <v>4.088157375736756e-05</v>
+        <v>4.118535529640255e-05</v>
       </c>
       <c r="X6" t="n">
         <v>14.15271271271305</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.504004004004161</v>
+        <v>6.764164164164326</v>
       </c>
       <c r="Z6" t="n">
-        <v>21.80142142142195</v>
+        <v>21.54126126126178</v>
       </c>
     </row>
     <row r="7">
@@ -1029,51 +1029,51 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-1.281312551401765, 14.558047058789821]</t>
+          <t>[-1.3119892586116482, 14.588723765999704]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.09828390810840038</v>
+        <v>0.09954936626885647</v>
       </c>
       <c r="O7" t="n">
-        <v>0.09828390810840038</v>
+        <v>0.09954936626885647</v>
       </c>
       <c r="P7" t="n">
         <v>2.232763547596349</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.7861843477451949, 5.251711442937893]</t>
+          <t>[-0.4780000834290776, 4.943527178621776]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.1433061200706969</v>
+        <v>0.1040811733444098</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1433061200706969</v>
+        <v>0.1040811733444098</v>
       </c>
       <c r="T7" t="n">
         <v>9.43717247185884</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[5.342526868961723, 13.531818074755957]</t>
+          <t>[5.343658130559504, 13.530686813158177]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>2.998400968845516e-05</v>
+        <v>2.985854158832346e-05</v>
       </c>
       <c r="W7" t="n">
-        <v>2.998400968845516e-05</v>
+        <v>2.985854158832346e-05</v>
       </c>
       <c r="X7" t="n">
         <v>15.98074074074102</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.0696296296297</v>
+        <v>5.285555555555653</v>
       </c>
       <c r="Z7" t="n">
-        <v>27.89185185185235</v>
+        <v>26.6759259259264</v>
       </c>
     </row>
     <row r="8">
@@ -1115,51 +1115,51 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-0.5380797377705928, 14.364439908324082]</t>
+          <t>[-0.6167033346194675, 14.443063505172956]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.06818823173947797</v>
+        <v>0.07101201300115489</v>
       </c>
       <c r="O8" t="n">
-        <v>0.06818823173947797</v>
+        <v>0.07101201300115489</v>
       </c>
       <c r="P8" t="n">
         <v>1.817658211986886</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[0.2956053147521924, 3.3397111092215805]</t>
+          <t>[0.2704474156243464, 3.3648690083494266]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.02033379972521887</v>
+        <v>0.02233955324453185</v>
       </c>
       <c r="S8" t="n">
-        <v>0.02033379972521887</v>
+        <v>0.02233955324453185</v>
       </c>
       <c r="T8" t="n">
         <v>9.542181397388747</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[5.449887335341106, 13.634475459436388]</t>
+          <t>[5.452075339439258, 13.632287455338236]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>2.509656548488337e-05</v>
+        <v>2.489065378319388e-05</v>
       </c>
       <c r="W8" t="n">
-        <v>2.509656548488337e-05</v>
+        <v>2.489065378319388e-05</v>
       </c>
       <c r="X8" t="n">
         <v>17.61851851851883</v>
       </c>
       <c r="Y8" t="n">
-        <v>11.61333333333354</v>
+        <v>11.51407407407428</v>
       </c>
       <c r="Z8" t="n">
-        <v>23.62370370370412</v>
+        <v>23.72296296296338</v>
       </c>
     </row>
     <row r="9">
@@ -1201,51 +1201,51 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-1.0546524248481308, 14.45881423625418]</t>
+          <t>[-1.1973998942430004, 14.601561705649049]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.08864981153850837</v>
+        <v>0.09437637953349753</v>
       </c>
       <c r="O9" t="n">
-        <v>0.08864981153850837</v>
+        <v>0.09437637953349753</v>
       </c>
       <c r="P9" t="n">
         <v>2.056658253701426</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[0.2830263651882694, 3.830290142214582]</t>
+          <t>[0.11950002085726918, 3.9938164865455823]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.02403435058818504</v>
+        <v>0.03795292781593385</v>
       </c>
       <c r="S9" t="n">
-        <v>0.02403435058818504</v>
+        <v>0.03795292781593385</v>
       </c>
       <c r="T9" t="n">
         <v>9.449770531268168</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[5.350609378564194, 13.548931683972143]</t>
+          <t>[5.349312466936334, 13.550228595600002]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>2.987869394543985e-05</v>
+        <v>3.00224620077838e-05</v>
       </c>
       <c r="W9" t="n">
-        <v>2.987869394543985e-05</v>
+        <v>3.00224620077838e-05</v>
       </c>
       <c r="X9" t="n">
         <v>16.67555555555585</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.677777777777953</v>
+        <v>9.032592592592756</v>
       </c>
       <c r="Z9" t="n">
-        <v>23.67333333333375</v>
+        <v>24.31851851851895</v>
       </c>
     </row>
     <row r="10">
@@ -1253,7 +1253,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1287,51 +1287,51 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-0.11167905654489729, 13.825693012514149]</t>
+          <t>[0.07054734953545427, 13.643466606433797]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.05362675900244218</v>
+        <v>0.04776278397956446</v>
       </c>
       <c r="O10" t="n">
-        <v>0.05362675900244218</v>
+        <v>0.04776278397956446</v>
       </c>
       <c r="P10" t="n">
         <v>1.956026657190042</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[0.3962369112635775, 3.5158164031165056]</t>
+          <t>[0.42139481039142357, 3.4906585039886595]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.01513488640288929</v>
+        <v>0.0136487085209076</v>
       </c>
       <c r="S10" t="n">
-        <v>0.01513488640288929</v>
+        <v>0.0136487085209076</v>
       </c>
       <c r="T10" t="n">
         <v>8.490867808295819</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[4.716251810920303, 12.265483805671336]</t>
+          <t>[4.719046483838294, 12.262689132753344]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>4.309616084863244e-05</v>
+        <v>4.262907435670371e-05</v>
       </c>
       <c r="W10" t="n">
-        <v>4.309616084863244e-05</v>
+        <v>4.262907435670371e-05</v>
       </c>
       <c r="X10" t="n">
         <v>17.07259259259289</v>
       </c>
       <c r="Y10" t="n">
-        <v>10.91851851851871</v>
+        <v>11.01777777777797</v>
       </c>
       <c r="Z10" t="n">
-        <v>23.22666666666707</v>
+        <v>23.12740740740781</v>
       </c>
     </row>
     <row r="11">
@@ -1373,51 +1373,51 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[0.2881405767333227, 12.987402745477329]</t>
+          <t>[0.032125852029606605, 13.243417470181045]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.04086065053993959</v>
+        <v>0.04894226675991264</v>
       </c>
       <c r="O11" t="n">
-        <v>0.04086065053993959</v>
+        <v>0.04894226675991264</v>
       </c>
       <c r="P11" t="n">
         <v>1.779921363295117</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[0.42139481039142357, 3.1384479161988112]</t>
+          <t>[0.5094474573388856, 3.050395269251349]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.01138698130813043</v>
+        <v>0.007084844960868697</v>
       </c>
       <c r="S11" t="n">
-        <v>0.01138698130813043</v>
+        <v>0.007084844960868697</v>
       </c>
       <c r="T11" t="n">
         <v>7.88620118563566</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[4.223257893816005, 11.549144477455316]</t>
+          <t>[4.223141229267657, 11.549261142003663]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>8.064831993959132e-05</v>
+        <v>8.068398959193424e-05</v>
       </c>
       <c r="W11" t="n">
-        <v>8.064831993959132e-05</v>
+        <v>8.068398959193424e-05</v>
       </c>
       <c r="X11" t="n">
         <v>17.76740740740772</v>
       </c>
       <c r="Y11" t="n">
-        <v>12.40740740740763</v>
+        <v>12.75481481481505</v>
       </c>
       <c r="Z11" t="n">
-        <v>23.12740740740782</v>
+        <v>22.7800000000004</v>
       </c>
     </row>
     <row r="12">
@@ -1459,51 +1459,51 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-0.8846240829866119, 13.653351330017866]</t>
+          <t>[-0.7282631646868936, 13.496990411718148]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.08367281228023216</v>
+        <v>0.07731181292783873</v>
       </c>
       <c r="O12" t="n">
-        <v>0.08367281228023216</v>
+        <v>0.07731181292783873</v>
       </c>
       <c r="P12" t="n">
         <v>1.239026532046425</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-0.4465527095192714, 2.9246057736121207]</t>
+          <t>[-0.42139481039142446, 2.8994478744842738]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.1457035366702237</v>
+        <v>0.1398383151045526</v>
       </c>
       <c r="S12" t="n">
-        <v>0.1457035366702237</v>
+        <v>0.1398383151045526</v>
       </c>
       <c r="T12" t="n">
         <v>8.371290391401288</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[4.468543179471837, 12.27403760333074]</t>
+          <t>[4.4637375903534675, 12.27884319244911]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>8.491257228016025e-05</v>
+        <v>8.636732020028681e-05</v>
       </c>
       <c r="W12" t="n">
-        <v>8.491257228016025e-05</v>
+        <v>8.636732020028681e-05</v>
       </c>
       <c r="X12" t="n">
         <v>19.90148148148183</v>
       </c>
       <c r="Y12" t="n">
-        <v>13.25111111111134</v>
+        <v>13.3503703703706</v>
       </c>
       <c r="Z12" t="n">
-        <v>26.55185185185232</v>
+        <v>26.45259259259306</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_per_day_fixed_period_5_sawtooth_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_per_day_fixed_period_5_sawtooth_0_.xlsx
@@ -599,14 +599,14 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[0.21342326297962266, 13.00082627543468]</t>
+          <t>[0.07986671917808685, 13.134382819236215]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.04312273696604918</v>
+        <v>0.04737586138193706</v>
       </c>
       <c r="O2" t="n">
-        <v>0.04312273696604918</v>
+        <v>0.04737586138193706</v>
       </c>
       <c r="P2" t="n">
         <v>-1.434000250287233</v>
@@ -627,14 +627,14 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[5.018990335976898, 12.673312238931985]</t>
+          <t>[5.018292665804591, 12.674009909104292]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>2.869836718466523e-05</v>
+        <v>2.877813226143111e-05</v>
       </c>
       <c r="W2" t="n">
-        <v>2.869836718466523e-05</v>
+        <v>2.877813226143111e-05</v>
       </c>
       <c r="X2" t="n">
         <v>5.931651651651794</v>
@@ -685,51 +685,51 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-1.0899303542357472, 13.858948977358665]</t>
+          <t>[-0.9695348666467609, 13.738553489769679]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.09222960119982915</v>
+        <v>0.08718471349407797</v>
       </c>
       <c r="O3" t="n">
-        <v>0.09222960119982915</v>
+        <v>0.08718471349407797</v>
       </c>
       <c r="P3" t="n">
         <v>-1.849105585896694</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-3.547263777026312, -0.1509473947670772]</t>
+          <t>[-3.585000625718081, -0.11321054607530812]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.03350684771698154</v>
+        <v>0.03734821433354596</v>
       </c>
       <c r="S3" t="n">
-        <v>0.03350684771698154</v>
+        <v>0.03734821433354596</v>
       </c>
       <c r="T3" t="n">
         <v>9.669749889684461</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[5.461435903498645, 13.878063875870277]</t>
+          <t>[5.455904125635412, 13.88359565373351]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>3.13946745831295e-05</v>
+        <v>3.202368894128504e-05</v>
       </c>
       <c r="W3" t="n">
-        <v>3.13946745831295e-05</v>
+        <v>3.202368894128504e-05</v>
       </c>
       <c r="X3" t="n">
         <v>7.648708708708892</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.6243843843844008</v>
+        <v>0.4682882882883019</v>
       </c>
       <c r="Z3" t="n">
-        <v>14.67303303303338</v>
+        <v>14.82912912912948</v>
       </c>
     </row>
     <row r="4">
@@ -771,51 +771,51 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-1.4766008015267928, 14.490480815988356]</t>
+          <t>[-1.5561589332184234, 14.570038947679986]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.1076479270738941</v>
+        <v>0.111064510623522</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1076479270738941</v>
+        <v>0.111064510623522</v>
       </c>
       <c r="P4" t="n">
         <v>-2.616421509296003</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-5.4466851611787, 0.2138421425866932]</t>
+          <t>[-5.169948270772392, -0.06289474781961513]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.06915149521547592</v>
+        <v>0.04484052336225131</v>
       </c>
       <c r="S4" t="n">
-        <v>0.06915149521547592</v>
+        <v>0.04484052336225131</v>
       </c>
       <c r="T4" t="n">
         <v>9.415919150610106</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[5.163313059760018, 13.668525241460195]</t>
+          <t>[5.165820343603112, 13.6660179576171]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>5.425782262769019e-05</v>
+        <v>5.379861286924914e-05</v>
       </c>
       <c r="W4" t="n">
-        <v>5.425782262769019e-05</v>
+        <v>5.379861286924914e-05</v>
       </c>
       <c r="X4" t="n">
         <v>10.82266266266292</v>
       </c>
       <c r="Y4" t="n">
-        <v>-0.8845445445445677</v>
+        <v>0.2601601601601651</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.52986986987041</v>
+        <v>21.38516516516568</v>
       </c>
     </row>
     <row r="5">
@@ -857,51 +857,51 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-1.5567959394952737, 14.656355068060062]</t>
+          <t>[-1.5508501534228802, 14.650409281987669]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.1106535720877817</v>
+        <v>0.1103994098292351</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1106535720877817</v>
+        <v>0.1103994098292351</v>
       </c>
       <c r="P5" t="n">
         <v>-2.717053105807389</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-4.9686850777496225, -0.4654211338651546]</t>
+          <t>[-4.817737682982545, -0.6163685286322318]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.0191310717017763</v>
+        <v>0.0124060617994286</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0191310717017763</v>
+        <v>0.0124060617994286</v>
       </c>
       <c r="T5" t="n">
         <v>9.424235720681038</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[5.201939489069154, 13.646531952292921]</t>
+          <t>[5.202806762072141, 13.645664679289935]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>4.82971888462469e-05</v>
+        <v>4.815294914339852e-05</v>
       </c>
       <c r="W5" t="n">
-        <v>4.82971888462469e-05</v>
+        <v>4.815294914339852e-05</v>
       </c>
       <c r="X5" t="n">
         <v>11.23891891891919</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.925185185185232</v>
+        <v>2.549569569569631</v>
       </c>
       <c r="Z5" t="n">
-        <v>20.55265265265314</v>
+        <v>19.92826826826875</v>
       </c>
     </row>
     <row r="6">
@@ -943,51 +943,51 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-1.1054528029386965, 13.9346716645165]</t>
+          <t>[-1.3697629452613267, 14.19898180683913]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.0926659751991703</v>
+        <v>0.1039299242053826</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0926659751991703</v>
+        <v>0.1039299242053826</v>
       </c>
       <c r="P6" t="n">
         <v>2.861711025792504</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[1.0755001877154236, 4.647921863869584]</t>
+          <t>[1.0000264903318854, 4.723395561253122]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.002336210289328067</v>
+        <v>0.003370708180901349</v>
       </c>
       <c r="S6" t="n">
-        <v>0.002336210289328067</v>
+        <v>0.003370708180901349</v>
       </c>
       <c r="T6" t="n">
         <v>9.518931836083972</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[5.300293617419893, 13.737570054748051]</t>
+          <t>[5.30024043389207, 13.737623238275873]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>4.118535529640255e-05</v>
+        <v>4.119302199168118e-05</v>
       </c>
       <c r="W6" t="n">
-        <v>4.118535529640255e-05</v>
+        <v>4.119302199168118e-05</v>
       </c>
       <c r="X6" t="n">
         <v>14.15271271271305</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.764164164164326</v>
+        <v>6.451971971972127</v>
       </c>
       <c r="Z6" t="n">
-        <v>21.54126126126178</v>
+        <v>21.85345345345398</v>
       </c>
     </row>
     <row r="7">
@@ -1029,51 +1029,51 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-1.3119892586116482, 14.588723765999704]</t>
+          <t>[-1.4053375899954617, 14.682072097383518]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.09954936626885647</v>
+        <v>0.1034213614256891</v>
       </c>
       <c r="O7" t="n">
-        <v>0.09954936626885647</v>
+        <v>0.1034213614256891</v>
       </c>
       <c r="P7" t="n">
         <v>2.232763547596349</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.4780000834290776, 4.943527178621776]</t>
+          <t>[-0.798763297309117, 5.264290392501815]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.1040811733444098</v>
+        <v>0.1449344744143595</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1040811733444098</v>
+        <v>0.1449344744143595</v>
       </c>
       <c r="T7" t="n">
         <v>9.43717247185884</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[5.343658130559504, 13.530686813158177]</t>
+          <t>[5.343497635054433, 13.530847308663247]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>2.985854158832346e-05</v>
+        <v>2.98763149177983e-05</v>
       </c>
       <c r="W7" t="n">
-        <v>2.985854158832346e-05</v>
+        <v>2.98763149177983e-05</v>
       </c>
       <c r="X7" t="n">
         <v>15.98074074074102</v>
       </c>
       <c r="Y7" t="n">
-        <v>5.285555555555653</v>
+        <v>4.020000000000074</v>
       </c>
       <c r="Z7" t="n">
-        <v>26.6759259259264</v>
+        <v>27.94148148148198</v>
       </c>
     </row>
     <row r="8">
@@ -1115,51 +1115,51 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-0.6167033346194675, 14.443063505172956]</t>
+          <t>[-0.5972969394681655, 14.423657110021654]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.07101201300115489</v>
+        <v>0.07031151543423819</v>
       </c>
       <c r="O8" t="n">
-        <v>0.07101201300115489</v>
+        <v>0.07031151543423819</v>
       </c>
       <c r="P8" t="n">
         <v>1.817658211986886</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[0.2704474156243464, 3.3648690083494266]</t>
+          <t>[0.32076321388003937, 3.3145532100937336]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.02233955324453185</v>
+        <v>0.01843264828558988</v>
       </c>
       <c r="S8" t="n">
-        <v>0.02233955324453185</v>
+        <v>0.01843264828558988</v>
       </c>
       <c r="T8" t="n">
         <v>9.542181397388747</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[5.452075339439258, 13.632287455338236]</t>
+          <t>[5.45032686685679, 13.634035927920703]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>2.489065378319388e-05</v>
+        <v>2.505508527672617e-05</v>
       </c>
       <c r="W8" t="n">
-        <v>2.489065378319388e-05</v>
+        <v>2.505508527672617e-05</v>
       </c>
       <c r="X8" t="n">
         <v>17.61851851851883</v>
       </c>
       <c r="Y8" t="n">
-        <v>11.51407407407428</v>
+        <v>11.71259259259281</v>
       </c>
       <c r="Z8" t="n">
-        <v>23.72296296296338</v>
+        <v>23.52444444444486</v>
       </c>
     </row>
     <row r="9">
@@ -1201,51 +1201,51 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-1.1973998942430004, 14.601561705649049]</t>
+          <t>[-1.1909047993287274, 14.595066610734776]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.09437637953349753</v>
+        <v>0.09411392093042914</v>
       </c>
       <c r="O9" t="n">
-        <v>0.09437637953349753</v>
+        <v>0.09411392093042914</v>
       </c>
       <c r="P9" t="n">
         <v>2.056658253701426</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[0.11950002085726918, 3.9938164865455823]</t>
+          <t>[0.24528951649650033, 3.868026990906351]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.03795292781593385</v>
+        <v>0.02696124826939617</v>
       </c>
       <c r="S9" t="n">
-        <v>0.03795292781593385</v>
+        <v>0.02696124826939617</v>
       </c>
       <c r="T9" t="n">
         <v>9.449770531268168</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[5.349312466936334, 13.550228595600002]</t>
+          <t>[5.352133724545798, 13.547407337990538]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>3.00224620077838e-05</v>
+        <v>2.971046227551177e-05</v>
       </c>
       <c r="W9" t="n">
-        <v>3.00224620077838e-05</v>
+        <v>2.971046227551177e-05</v>
       </c>
       <c r="X9" t="n">
         <v>16.67555555555585</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.032592592592756</v>
+        <v>9.528888888889062</v>
       </c>
       <c r="Z9" t="n">
-        <v>24.31851851851895</v>
+        <v>23.82222222222264</v>
       </c>
     </row>
     <row r="10">
@@ -1253,7 +1253,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1287,51 +1287,51 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[0.07054734953545427, 13.643466606433797]</t>
+          <t>[-0.22188986087037676, 13.935903816839629]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.04776278397956446</v>
+        <v>0.05730365181468944</v>
       </c>
       <c r="O10" t="n">
-        <v>0.04776278397956446</v>
+        <v>0.05730365181468944</v>
       </c>
       <c r="P10" t="n">
         <v>1.956026657190042</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[0.42139481039142357, 3.4906585039886595]</t>
+          <t>[0.4968685077749626, 3.4151848066051205]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.0136487085209076</v>
+        <v>0.009736756634994848</v>
       </c>
       <c r="S10" t="n">
-        <v>0.0136487085209076</v>
+        <v>0.009736756634994848</v>
       </c>
       <c r="T10" t="n">
         <v>8.490867808295819</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[4.719046483838294, 12.262689132753344]</t>
+          <t>[4.719311397644345, 12.262424218947293]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>4.262907435670371e-05</v>
+        <v>4.25850206797751e-05</v>
       </c>
       <c r="W10" t="n">
-        <v>4.262907435670371e-05</v>
+        <v>4.25850206797751e-05</v>
       </c>
       <c r="X10" t="n">
         <v>17.07259259259289</v>
       </c>
       <c r="Y10" t="n">
-        <v>11.01777777777797</v>
+        <v>11.31555555555575</v>
       </c>
       <c r="Z10" t="n">
-        <v>23.12740740740781</v>
+        <v>22.82962962963003</v>
       </c>
     </row>
     <row r="11">
@@ -1373,51 +1373,51 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[0.032125852029606605, 13.243417470181045]</t>
+          <t>[0.01129908712904637, 13.264244235081605]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.04894226675991264</v>
+        <v>0.04962691704136346</v>
       </c>
       <c r="O11" t="n">
-        <v>0.04894226675991264</v>
+        <v>0.04962691704136346</v>
       </c>
       <c r="P11" t="n">
         <v>1.779921363295117</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[0.5094474573388856, 3.050395269251349]</t>
+          <t>[0.40881586082750143, 3.1510268657627334]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.007084844960868697</v>
+        <v>0.01210916319196609</v>
       </c>
       <c r="S11" t="n">
-        <v>0.007084844960868697</v>
+        <v>0.01210916319196609</v>
       </c>
       <c r="T11" t="n">
         <v>7.88620118563566</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[4.223141229267657, 11.549261142003663]</t>
+          <t>[4.2236375852944885, 11.548764785976832]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>8.068398959193424e-05</v>
+        <v>8.053232186822079e-05</v>
       </c>
       <c r="W11" t="n">
-        <v>8.068398959193424e-05</v>
+        <v>8.053232186822079e-05</v>
       </c>
       <c r="X11" t="n">
         <v>17.76740740740772</v>
       </c>
       <c r="Y11" t="n">
-        <v>12.75481481481505</v>
+        <v>12.357777777778</v>
       </c>
       <c r="Z11" t="n">
-        <v>22.7800000000004</v>
+        <v>23.17703703703744</v>
       </c>
     </row>
     <row r="12">
@@ -1459,51 +1459,51 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-0.7282631646868936, 13.496990411718148]</t>
+          <t>[-0.9744506703299578, 13.743177917361212]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.07731181292783873</v>
+        <v>0.08739018669524667</v>
       </c>
       <c r="O12" t="n">
-        <v>0.07731181292783873</v>
+        <v>0.08739018669524667</v>
       </c>
       <c r="P12" t="n">
         <v>1.239026532046425</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-0.42139481039142446, 2.8994478744842738]</t>
+          <t>[-0.4339737599553475, 2.912026824048197]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.1398383151045526</v>
+        <v>0.1427690804502673</v>
       </c>
       <c r="S12" t="n">
-        <v>0.1398383151045526</v>
+        <v>0.1427690804502673</v>
       </c>
       <c r="T12" t="n">
         <v>8.371290391401288</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[4.4637375903534675, 12.27884319244911]</t>
+          <t>[4.465188763514604, 12.277392019287973]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>8.636732020028681e-05</v>
+        <v>8.592585471633996e-05</v>
       </c>
       <c r="W12" t="n">
-        <v>8.636732020028681e-05</v>
+        <v>8.592585471633996e-05</v>
       </c>
       <c r="X12" t="n">
         <v>19.90148148148183</v>
       </c>
       <c r="Y12" t="n">
-        <v>13.3503703703706</v>
+        <v>13.30074074074097</v>
       </c>
       <c r="Z12" t="n">
-        <v>26.45259259259306</v>
+        <v>26.50222222222269</v>
       </c>
     </row>
   </sheetData>
